--- a/test_blueprints/test.xlsx
+++ b/test_blueprints/test.xlsx
@@ -320,7 +320,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,16 +398,55 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>Boston</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>64</v>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
+      <c r="B6" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>alutgjbntz</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>clujsdmezz</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>wezaarrlty</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>65</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
